--- a/Requisitos Funcionais.xlsx
+++ b/Requisitos Funcionais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55119\Documents\SPTECH\EscolinhaDoTom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59339547-0E3B-40C6-9B07-8E0BB6707165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727669F-2F16-4D19-8F27-52CAB8FEE9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07257DC1-4D44-4C39-8168-825E29C32C2B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -129,6 +129,54 @@
   </si>
   <si>
     <t>DESEJÁVEL</t>
+  </si>
+  <si>
+    <t>Requisitos Não Funcionais do Projeto</t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>Site Programado</t>
+  </si>
+  <si>
+    <t>Segurança de Dados (Criptografia)</t>
+  </si>
+  <si>
+    <t>Disponibilidade</t>
+  </si>
+  <si>
+    <t>Tempo de Resposta</t>
+  </si>
+  <si>
+    <t>O tempo de resposta por cada ação deverá ser entre 7 a 10 segundos.</t>
+  </si>
+  <si>
+    <t>O Banco de dados será feito no MySql.</t>
+  </si>
+  <si>
+    <t>O site será feito nas linguagens HTML, CSS e JavaScript.</t>
+  </si>
+  <si>
+    <t>Deve ser garantido a segurança de dados que foram cadastrados pelos usuários.</t>
+  </si>
+  <si>
+    <t>Tela onde o usuário professor pode se cadastrar.</t>
+  </si>
+  <si>
+    <t>Todo o sistema deverá estar disponível a todo e qualquer momento para que o cliente possa acessar.</t>
+  </si>
+  <si>
+    <t>Fácil Compreensão da Interface</t>
+  </si>
+  <si>
+    <t>A interface será de fácil compreensão, garantindo acessibilidade e praticidade para o usuário</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>O primeiro acesso no site deverá contar com um manual para orientar o usuário a como usar.</t>
   </si>
 </sst>
 </file>
@@ -283,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,9 +342,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,6 +368,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,16 +694,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DC32B5-707B-419E-9756-D976A0E1626C}">
-  <dimension ref="C1:E23"/>
+  <dimension ref="C1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -662,198 +713,265 @@
       <c r="E1"/>
     </row>
     <row r="2" spans="3:5" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="3:5" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+    <row r="18" spans="3:5" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="3:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
